--- a/Excel reader/B3.xlsx
+++ b/Excel reader/B3.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B082</t>
+          <t>181b082</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B081</t>
+          <t>181b081</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181B076</t>
+          <t>181b076</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -520,7 +520,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181B069</t>
+          <t>181b069</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B073</t>
+          <t>181b073</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -556,7 +556,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B077</t>
+          <t>181b077</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -574,7 +574,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B067</t>
+          <t>181b067</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181B095</t>
+          <t>181b095</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -612,7 +612,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B071</t>
+          <t>181b071</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -630,7 +630,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181B086</t>
+          <t>181b086</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -648,7 +648,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>181B068</t>
+          <t>181b068</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -666,7 +666,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181B088</t>
+          <t>181b088</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -702,7 +702,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B080</t>
+          <t>181b080</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -720,7 +720,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181B079</t>
+          <t>181b079</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -738,7 +738,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181B074</t>
+          <t>181b074</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -756,7 +756,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>181B092</t>
+          <t>181b092</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -774,7 +774,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>181B091</t>
+          <t>181b091</t>
         </is>
       </c>
       <c r="B20" t="n">
